--- a/data/ifr_flight_info.xlsx
+++ b/data/ifr_flight_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F74C8D3-D59C-42C1-963A-99466BBA846A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711FD9AF-9136-4F2C-A270-AD0DD4CBECCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -389,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="B19" sqref="B19:R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,18 +659,6 @@
         <v>34295</v>
       </c>
     </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I27">
-        <f>17*4</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I28">
-        <f>100-I27</f>
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/ifr_flight_info.xlsx
+++ b/data/ifr_flight_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oburdash\dev\repos\standard_inputs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711FD9AF-9136-4F2C-A270-AD0DD4CBECCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADAA565-03DB-4007-9355-03CD05AE9644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,15 +71,23 @@
     <t>avg_fuel_burn</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>Total/average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -107,8 +115,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,7 +401,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:R39"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,16 +435,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4077653</v>
+        <v>2028273</v>
       </c>
       <c r="C2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E2">
-        <v>3366</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -443,16 +452,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3098905</v>
+        <v>1423613</v>
       </c>
       <c r="C3">
-        <v>676</v>
+        <v>706</v>
       </c>
       <c r="D3">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E3">
-        <v>4672</v>
+        <v>4695</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -460,16 +469,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>568530</v>
+        <v>595555</v>
       </c>
       <c r="C4">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="D4">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E4">
-        <v>901</v>
+        <v>861</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -477,16 +486,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>249413</v>
+        <v>209977</v>
       </c>
       <c r="C5">
-        <v>684</v>
+        <v>586</v>
       </c>
       <c r="D5">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E5">
-        <v>4370</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -494,16 +503,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>242793</v>
+        <v>265609</v>
       </c>
       <c r="C6">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D6">
         <v>88</v>
       </c>
       <c r="E6">
-        <v>560</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -511,33 +520,33 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>217620</v>
+        <v>229566</v>
       </c>
       <c r="C7">
-        <v>460</v>
+        <v>478</v>
       </c>
       <c r="D7">
         <v>99</v>
       </c>
       <c r="E7">
-        <v>5794</v>
+        <v>5955</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
-        <v>8454914</v>
-      </c>
-      <c r="C8">
-        <v>538</v>
-      </c>
-      <c r="D8">
-        <v>109</v>
-      </c>
-      <c r="E8">
-        <v>3691</v>
+      <c r="B8" s="1">
+        <v>4752593</v>
+      </c>
+      <c r="C8" s="1">
+        <v>471</v>
+      </c>
+      <c r="D8" s="1">
+        <v>104</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3098</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -545,16 +554,16 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>1608581</v>
+        <v>671271</v>
       </c>
       <c r="C9">
-        <v>2706</v>
+        <v>2855</v>
       </c>
       <c r="D9">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="E9">
-        <v>39109</v>
+        <v>36909</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -562,16 +571,16 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>243398</v>
+        <v>97720</v>
       </c>
       <c r="C10">
-        <v>1716</v>
+        <v>1344</v>
       </c>
       <c r="D10">
-        <v>260</v>
+        <v>212</v>
       </c>
       <c r="E10">
-        <v>14679</v>
+        <v>9106</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -579,16 +588,16 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>151540</v>
+        <v>87016</v>
       </c>
       <c r="C11">
-        <v>1527</v>
+        <v>1969</v>
       </c>
       <c r="D11">
-        <v>238</v>
+        <v>291</v>
       </c>
       <c r="E11">
-        <v>13782</v>
+        <v>5856</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -596,16 +605,16 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>94738</v>
+        <v>151769</v>
       </c>
       <c r="C12">
-        <v>2709</v>
+        <v>1933</v>
       </c>
       <c r="D12">
-        <v>377</v>
+        <v>289</v>
       </c>
       <c r="E12">
-        <v>34981</v>
+        <v>19996</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -613,16 +622,16 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>94514</v>
+        <v>8142</v>
       </c>
       <c r="C13">
-        <v>2682</v>
+        <v>2331</v>
       </c>
       <c r="D13">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="E13">
-        <v>36145</v>
+        <v>23044</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -630,33 +639,33 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>7679</v>
+        <v>113382</v>
       </c>
       <c r="C14">
-        <v>1862</v>
+        <v>3310</v>
       </c>
       <c r="D14">
-        <v>293</v>
+        <v>450</v>
       </c>
       <c r="E14">
-        <v>21150</v>
+        <v>60065</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15">
-        <v>2200450</v>
-      </c>
-      <c r="C15">
-        <v>2511</v>
-      </c>
-      <c r="D15">
-        <v>360</v>
-      </c>
-      <c r="E15">
-        <v>34295</v>
+      <c r="B15" s="1">
+        <v>1129300</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2290</v>
+      </c>
+      <c r="D15" s="1">
+        <v>330</v>
+      </c>
+      <c r="E15" s="1">
+        <v>25829</v>
       </c>
     </row>
   </sheetData>
